--- a/data/trans_dic/P19C04-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C04-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P19C04-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C04-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,86%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,52%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,24%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,7%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,23%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,12%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,68%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,52%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,7%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>27,56; 34,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>37,92; 45,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>28,92; 37,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>31,06; 38,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>20,17; 25,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>23,93; 29,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>18,53; 25,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>20,92; 25,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>24,03; 28,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>30,6; 34,86</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>23,75; 29,22</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>25,55; 29,85</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,84%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,4%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,03%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>16,18; 20,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>19,06; 22,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>14,64; 18,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>11,75; 15,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>10,14; 13,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>11,99; 15,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>9,84; 13,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>7,08; 9,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>13,57; 16,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>16,09; 18,74</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>12,56; 15,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>9,85; 12,11</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,4%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>5,95; 11,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>7,51; 13,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>6,48; 11,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>6,3; 10,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>4,14; 8,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>5,15; 10,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>5,4; 10,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,36; 6,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>5,59; 9,29</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>6,96; 11,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>6,57; 10,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>5,23; 7,89</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,01%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,25%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>18,43; 21,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>23,03; 26,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>16,29; 19,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>14,41; 17,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>13,43; 16,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>16,15; 18,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>11,73; 14,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>9,91; 12,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>16,14; 18,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>19,95; 22,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>14,35; 16,34</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>12,36; 14,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C04-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C04-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>34,7%</t>
+          <t>34,09%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>23,43%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>27,7%</t>
+          <t>27,71%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31,06; 38,71</t>
+          <t>30,31; 38,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,92; 25,77</t>
+          <t>21,13; 25,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,55; 29,85</t>
+          <t>25,48; 29,82</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>10,03%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,75; 15,24</t>
+          <t>8,35; 14,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,08; 9,83</t>
+          <t>5,17; 9,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,85; 12,11</t>
+          <t>7,81; 11,44</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>6,35%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,3; 10,92</t>
+          <t>6,06; 10,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 7,89</t>
+          <t>5,2; 7,83</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>12,43%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,41; 17,15</t>
+          <t>11,31; 16,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,91; 12,06</t>
+          <t>8,67; 11,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,36; 14,2</t>
+          <t>10,92; 13,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C04-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C04-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,56; 34,32</t>
+          <t>27,72; 34,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,92; 45,35</t>
+          <t>37,78; 45,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,92; 37,7</t>
+          <t>29,16; 37,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>30,31; 38,12</t>
+          <t>30,51; 37,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,17; 25,62</t>
+          <t>20,46; 25,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,93; 29,24</t>
+          <t>24,13; 29,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,53; 25,42</t>
+          <t>18,4; 25,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,13; 25,92</t>
+          <t>21,28; 25,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,03; 28,35</t>
+          <t>24,07; 28,31</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30,6; 34,86</t>
+          <t>30,43; 35,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,75; 29,22</t>
+          <t>23,76; 29,31</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,48; 29,82</t>
+          <t>25,56; 29,5</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,18; 20,38</t>
+          <t>16,27; 20,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,06; 22,99</t>
+          <t>18,99; 22,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,64; 18,16</t>
+          <t>14,48; 18,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,35; 14,26</t>
+          <t>8,44; 14,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,14; 13,59</t>
+          <t>9,94; 13,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,99; 15,41</t>
+          <t>12,09; 15,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,84; 13,11</t>
+          <t>10,02; 13,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,17; 9,38</t>
+          <t>5,74; 9,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,57; 16,31</t>
+          <t>13,42; 16,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,09; 18,74</t>
+          <t>16,21; 18,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,56; 15,11</t>
+          <t>12,74; 15,2</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,81; 11,44</t>
+          <t>8,16; 11,54</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,95; 11,61</t>
+          <t>5,66; 11,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,51; 13,75</t>
+          <t>7,37; 13,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,48; 11,64</t>
+          <t>6,11; 11,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 10,71</t>
+          <t>6,14; 10,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,14; 8,94</t>
+          <t>4,11; 9,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,15; 10,67</t>
+          <t>5,45; 11,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,4; 10,28</t>
+          <t>5,56; 10,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,39</t>
+          <t>3,41; 6,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,59; 9,29</t>
+          <t>5,45; 9,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,96; 11,19</t>
+          <t>7,09; 11,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,57; 10,14</t>
+          <t>6,55; 10,01</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,2; 7,83</t>
+          <t>5,19; 7,91</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,43; 21,69</t>
+          <t>18,37; 21,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,03; 26,35</t>
+          <t>23,09; 26,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,29; 19,28</t>
+          <t>16,36; 19,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,31; 16,33</t>
+          <t>11,36; 16,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,43; 16,2</t>
+          <t>13,28; 15,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,15; 18,85</t>
+          <t>16,09; 18,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,73; 14,48</t>
+          <t>11,81; 14,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,67; 11,7</t>
+          <t>8,57; 11,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,14; 18,29</t>
+          <t>16,06; 18,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,95; 22,07</t>
+          <t>19,98; 22,14</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,35; 16,34</t>
+          <t>14,22; 16,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,92; 13,6</t>
+          <t>10,7; 13,55</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por la extracción de algún diente o muela</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>212714</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>323513</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>152060</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>164796</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>217868</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>299858</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>138682</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>169076</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>430583</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>623371</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>290742</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>333872</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>191114; 238782</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>294393; 351183</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>133399; 173138</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>147478; 182958</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>196204; 244097</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>272242; 329800</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>117552; 162029</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>153524; 186770</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>396815; 466579</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>580470; 669275</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>260470; 321290</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>308017; 355498</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>239496</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>351910</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>276328</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>268600</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>159393</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>218348</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>195148</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>175652</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>398889</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>570258</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>471476</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>444252</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>213805; 270349</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>320674; 387149</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>245629; 308415</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>188357; 315787</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>136546; 183822</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>192103; 247503</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>171104; 225800</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>126127; 206587</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>360806; 432678</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>531226; 620495</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>433741; 517462</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>361189; 510862</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>37482</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>44774</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>43360</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>50397</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>25301</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>32714</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>39514</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>31084</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>62783</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>77488</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>82874</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>81481</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>25505; 50623</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>32571; 61174</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>30501; 58675</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>38746; 68716</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>16791; 36998</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>23095; 47088</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>28250; 53298</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>22200; 41901</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>46896; 79408</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>61380; 99740</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>65974; 100866</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>66562; 101460</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>795</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1296</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>489693</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>720197</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>471749</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>483793</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>402562</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>550920</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>373344</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>375812</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>892255</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1271117</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>845093</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>859605</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>450878; 531386</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>671870; 768829</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>434063; 512854</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>380117; 547821</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>364094; 437561</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>505517; 595047</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>337117; 414753</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>305975; 417478</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>834415; 948895</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1209006; 1339380</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>783047; 896637</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>740069; 936856</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>